--- a/Team-Data/2013-14/11-17-2013-14.xlsx
+++ b/Team-Data/2013-14/11-17-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>4.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
@@ -756,10 +823,10 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -771,13 +838,13 @@
         <v>10</v>
       </c>
       <c r="AM2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN2" t="n">
         <v>13</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>10</v>
@@ -792,7 +859,7 @@
         <v>8</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
@@ -804,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -926,19 +993,19 @@
         <v>-3.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>19</v>
@@ -959,10 +1026,10 @@
         <v>25</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ3" t="n">
         <v>12</v>
@@ -971,10 +1038,10 @@
         <v>23</v>
       </c>
       <c r="AS3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU3" t="n">
         <v>28</v>
@@ -998,10 +1065,10 @@
         <v>22</v>
       </c>
       <c r="BB3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-4.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
         <v>22</v>
@@ -1132,16 +1199,16 @@
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
         <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP4" t="n">
         <v>5</v>
@@ -1177,7 +1244,7 @@
         <v>30</v>
       </c>
       <c r="BA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="n">
         <v>19</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>12</v>
@@ -1302,7 +1369,7 @@
         <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
@@ -1332,13 +1399,13 @@
         <v>24</v>
       </c>
       <c r="AR5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU5" t="n">
         <v>26</v>
@@ -1365,7 +1432,7 @@
         <v>29</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>5</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1484,13 +1551,13 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>24</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>18</v>
@@ -1502,7 +1569,7 @@
         <v>28</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
@@ -1523,7 +1590,7 @@
         <v>8</v>
       </c>
       <c r="AU6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
         <v>22</v>
@@ -1538,7 +1605,7 @@
         <v>30</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA6" t="n">
         <v>14</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -1654,16 +1721,16 @@
         <v>-7</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
         <v>2</v>
@@ -1672,13 +1739,13 @@
         <v>26</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK7" t="n">
         <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
         <v>20</v>
@@ -1690,7 +1757,7 @@
         <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ7" t="n">
         <v>10</v>
@@ -1699,7 +1766,7 @@
         <v>12</v>
       </c>
       <c r="AS7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT7" t="n">
         <v>16</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1848,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1860,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM8" t="n">
         <v>7</v>
@@ -1869,7 +1936,7 @@
         <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
@@ -1881,19 +1948,19 @@
         <v>21</v>
       </c>
       <c r="AS8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
         <v>20</v>
       </c>
       <c r="AW8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX8" t="n">
         <v>27</v>
@@ -1902,7 +1969,7 @@
         <v>6</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA8" t="n">
         <v>25</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -2018,22 +2085,22 @@
         <v>-1.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF9" t="n">
         <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ9" t="n">
         <v>2</v>
@@ -2045,13 +2112,13 @@
         <v>14</v>
       </c>
       <c r="AM9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN9" t="n">
         <v>9</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
         <v>12</v>
@@ -2084,13 +2151,13 @@
         <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
       </c>
       <c r="BB9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC9" t="n">
         <v>17</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -2122,124 +2189,124 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>0.333</v>
+        <v>0.375</v>
       </c>
       <c r="H10" t="n">
         <v>48.6</v>
       </c>
       <c r="I10" t="n">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="J10" t="n">
-        <v>85.7</v>
+        <v>85.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.449</v>
+        <v>0.444</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="M10" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.281</v>
+        <v>0.272</v>
       </c>
       <c r="O10" t="n">
-        <v>17.4</v>
+        <v>18.8</v>
       </c>
       <c r="P10" t="n">
-        <v>25.2</v>
+        <v>26.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.714</v>
       </c>
       <c r="R10" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="S10" t="n">
         <v>27.1</v>
       </c>
       <c r="T10" t="n">
-        <v>41.6</v>
+        <v>41.9</v>
       </c>
       <c r="U10" t="n">
-        <v>20.2</v>
+        <v>19.8</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="X10" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Y10" t="n">
         <v>4.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.8</v>
+        <v>22.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.4</v>
+        <v>-2</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
         <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AM10" t="n">
         <v>14</v>
       </c>
       <c r="AN10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ10" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AR10" t="n">
         <v>1</v>
@@ -2248,25 +2315,25 @@
         <v>30</v>
       </c>
       <c r="AT10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU10" t="n">
         <v>21</v>
       </c>
-      <c r="AU10" t="n">
-        <v>19</v>
-      </c>
       <c r="AV10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX10" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AY10" t="n">
         <v>15</v>
       </c>
       <c r="AZ10" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BA10" t="n">
         <v>12</v>
@@ -2275,7 +2342,7 @@
         <v>13</v>
       </c>
       <c r="BC10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>7.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF11" t="n">
         <v>4</v>
@@ -2394,7 +2461,7 @@
         <v>4</v>
       </c>
       <c r="AH11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
         <v>3</v>
@@ -2448,10 +2515,10 @@
         <v>4</v>
       </c>
       <c r="AZ11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB11" t="n">
         <v>6</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>2.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF12" t="n">
         <v>9</v>
@@ -2579,7 +2646,7 @@
         <v>2</v>
       </c>
       <c r="AI12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2615,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="AU12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>9.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2758,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
         <v>23</v>
@@ -2779,13 +2846,13 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP13" t="n">
         <v>15</v>
       </c>
       <c r="AQ13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR13" t="n">
         <v>25</v>
@@ -2812,13 +2879,13 @@
         <v>17</v>
       </c>
       <c r="AZ13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA13" t="n">
         <v>4</v>
       </c>
       <c r="BB13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC13" t="n">
         <v>1</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>4.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>4</v>
@@ -2940,13 +3007,13 @@
         <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2967,13 +3034,13 @@
         <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
         <v>9</v>
       </c>
       <c r="AS14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT14" t="n">
         <v>11</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>0.417</v>
+        <v>0.364</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>36.5</v>
       </c>
       <c r="J15" t="n">
-        <v>87.3</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.428</v>
+        <v>0.42</v>
       </c>
       <c r="L15" t="n">
         <v>10.2</v>
@@ -3065,73 +3132,73 @@
         <v>0.407</v>
       </c>
       <c r="O15" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="P15" t="n">
-        <v>20.3</v>
+        <v>21.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.709</v>
+        <v>0.697</v>
       </c>
       <c r="R15" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="S15" t="n">
-        <v>34.8</v>
+        <v>35.2</v>
       </c>
       <c r="T15" t="n">
-        <v>45.7</v>
+        <v>46.4</v>
       </c>
       <c r="U15" t="n">
-        <v>24.3</v>
+        <v>23.5</v>
       </c>
       <c r="V15" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="W15" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="X15" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>17.8</v>
+        <v>18.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-4.4</v>
+        <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AH15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>5</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
         <v>2</v>
@@ -3146,22 +3213,22 @@
         <v>27</v>
       </c>
       <c r="AP15" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AQ15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT15" t="n">
         <v>3</v>
       </c>
-      <c r="AT15" t="n">
-        <v>4</v>
-      </c>
       <c r="AU15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
         <v>14</v>
@@ -3179,13 +3246,13 @@
         <v>19</v>
       </c>
       <c r="BA15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -3214,106 +3281,106 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
       <c r="H16" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>37.1</v>
+        <v>36.8</v>
       </c>
       <c r="J16" t="n">
-        <v>79.5</v>
+        <v>80.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.467</v>
+        <v>0.458</v>
       </c>
       <c r="L16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="N16" t="n">
         <v>0.313</v>
       </c>
       <c r="O16" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="P16" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.775</v>
+        <v>0.78</v>
       </c>
       <c r="R16" t="n">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="S16" t="n">
-        <v>32.1</v>
+        <v>31</v>
       </c>
       <c r="T16" t="n">
-        <v>41.4</v>
+        <v>40.6</v>
       </c>
       <c r="U16" t="n">
-        <v>23.4</v>
+        <v>22.7</v>
       </c>
       <c r="V16" t="n">
         <v>16.1</v>
       </c>
       <c r="W16" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
         <v>3.9</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>94.3</v>
+        <v>94</v>
       </c>
       <c r="AC16" t="n">
-        <v>-2.4</v>
+        <v>-3.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AF16" t="n">
         <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3325,28 +3392,28 @@
         <v>26</v>
       </c>
       <c r="AO16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP16" t="n">
         <v>26</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR16" t="n">
         <v>26</v>
       </c>
       <c r="AS16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV16" t="n">
         <v>16</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>15</v>
       </c>
       <c r="AW16" t="n">
         <v>25</v>
@@ -3355,19 +3422,19 @@
         <v>28</v>
       </c>
       <c r="AY16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA16" t="n">
         <v>17</v>
       </c>
       <c r="BB16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>7.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF17" t="n">
         <v>4</v>
@@ -3486,10 +3553,10 @@
         <v>4</v>
       </c>
       <c r="AH17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3501,7 +3568,7 @@
         <v>6</v>
       </c>
       <c r="AM17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN17" t="n">
         <v>2</v>
@@ -3519,7 +3586,7 @@
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3534,13 +3601,13 @@
         <v>10</v>
       </c>
       <c r="AX17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY17" t="n">
         <v>2</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -3656,25 +3723,25 @@
         <v>-8.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI18" t="n">
         <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK18" t="n">
         <v>27</v>
@@ -3686,10 +3753,10 @@
         <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP18" t="n">
         <v>28</v>
@@ -3704,7 +3771,7 @@
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU18" t="n">
         <v>24</v>
@@ -3716,13 +3783,13 @@
         <v>20</v>
       </c>
       <c r="AX18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -3838,10 +3905,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF19" t="n">
         <v>9</v>
@@ -3850,7 +3917,7 @@
         <v>8</v>
       </c>
       <c r="AH19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
         <v>6</v>
@@ -3865,7 +3932,7 @@
         <v>13</v>
       </c>
       <c r="AM19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN19" t="n">
         <v>15</v>
@@ -3898,13 +3965,13 @@
         <v>3</v>
       </c>
       <c r="AX19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY19" t="n">
         <v>27</v>
       </c>
       <c r="AZ19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA19" t="n">
         <v>9</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -4020,22 +4087,22 @@
         <v>1.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF20" t="n">
         <v>18</v>
       </c>
-      <c r="AF20" t="n">
-        <v>17</v>
-      </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
@@ -4053,7 +4120,7 @@
         <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP20" t="n">
         <v>14</v>
@@ -4068,7 +4135,7 @@
         <v>24</v>
       </c>
       <c r="AT20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -4202,28 +4269,28 @@
         <v>-5.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>24</v>
       </c>
       <c r="AF21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
         <v>8</v>
@@ -4232,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4268,16 +4335,16 @@
         <v>10</v>
       </c>
       <c r="AZ21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB21" t="n">
         <v>23</v>
       </c>
       <c r="BC21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>2.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
         <v>9</v>
@@ -4396,7 +4463,7 @@
         <v>7</v>
       </c>
       <c r="AH22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI22" t="n">
         <v>20</v>
@@ -4405,10 +4472,10 @@
         <v>18</v>
       </c>
       <c r="AK22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM22" t="n">
         <v>23</v>
@@ -4426,16 +4493,16 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS22" t="n">
         <v>5</v>
       </c>
       <c r="AT22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV22" t="n">
         <v>23</v>
@@ -4450,7 +4517,7 @@
         <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -4566,28 +4633,28 @@
         <v>0.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF23" t="n">
         <v>18</v>
       </c>
-      <c r="AF23" t="n">
-        <v>17</v>
-      </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
         <v>11</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL23" t="n">
         <v>15</v>
@@ -4632,7 +4699,7 @@
         <v>28</v>
       </c>
       <c r="AZ23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA23" t="n">
         <v>26</v>
@@ -4641,7 +4708,7 @@
         <v>15</v>
       </c>
       <c r="BC23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>-6.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
         <v>12</v>
       </c>
       <c r="AF24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
         <v>2</v>
@@ -4799,7 +4866,7 @@
         <v>10</v>
       </c>
       <c r="AU24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV24" t="n">
         <v>26</v>
@@ -4814,13 +4881,13 @@
         <v>29</v>
       </c>
       <c r="AZ24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA24" t="n">
         <v>20</v>
       </c>
       <c r="BB24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC24" t="n">
         <v>27</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>3</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4942,10 +5009,10 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
         <v>19</v>
@@ -4957,7 +5024,7 @@
         <v>11</v>
       </c>
       <c r="AM25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN25" t="n">
         <v>14</v>
@@ -4966,7 +5033,7 @@
         <v>20</v>
       </c>
       <c r="AP25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ25" t="n">
         <v>15</v>
@@ -4990,7 +5057,7 @@
         <v>5</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY25" t="n">
         <v>8</v>
@@ -5002,7 +5069,7 @@
         <v>23</v>
       </c>
       <c r="BB25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -5034,85 +5101,85 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8</v>
+        <v>0.778</v>
       </c>
       <c r="H26" t="n">
-        <v>48.5</v>
+        <v>48</v>
       </c>
       <c r="I26" t="n">
-        <v>39.4</v>
+        <v>38.9</v>
       </c>
       <c r="J26" t="n">
-        <v>86.09999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="M26" t="n">
-        <v>23.8</v>
+        <v>22.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.42</v>
+        <v>0.413</v>
       </c>
       <c r="O26" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P26" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.763</v>
+        <v>0.765</v>
       </c>
       <c r="R26" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="S26" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="T26" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="U26" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="V26" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W26" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X26" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="Y26" t="n">
         <v>2.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.1</v>
+        <v>18.4</v>
       </c>
       <c r="AA26" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>104.6</v>
+        <v>103.1</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
@@ -5124,31 +5191,31 @@
         <v>3</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AJ26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AK26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ26" t="n">
         <v>14</v>
@@ -5172,19 +5239,19 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BA26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G27" t="n">
-        <v>0.222</v>
+        <v>0.25</v>
       </c>
       <c r="H27" t="n">
         <v>48</v>
       </c>
       <c r="I27" t="n">
-        <v>34.9</v>
+        <v>35.1</v>
       </c>
       <c r="J27" t="n">
-        <v>83.59999999999999</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.418</v>
+        <v>0.423</v>
       </c>
       <c r="L27" t="n">
         <v>7.1</v>
@@ -5246,76 +5313,76 @@
         <v>22.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.318</v>
+        <v>0.32</v>
       </c>
       <c r="O27" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="P27" t="n">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.78</v>
+        <v>0.781</v>
       </c>
       <c r="R27" t="n">
         <v>10.8</v>
       </c>
       <c r="S27" t="n">
-        <v>28.7</v>
+        <v>29.3</v>
       </c>
       <c r="T27" t="n">
-        <v>39.4</v>
+        <v>40</v>
       </c>
       <c r="U27" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="V27" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="W27" t="n">
         <v>8</v>
       </c>
       <c r="X27" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="AA27" t="n">
         <v>20.6</v>
       </c>
       <c r="AB27" t="n">
-        <v>93</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.9</v>
+        <v>-4.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AG27" t="n">
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ27" t="n">
         <v>14</v>
       </c>
       <c r="AK27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
         <v>18</v>
@@ -5330,7 +5397,7 @@
         <v>18</v>
       </c>
       <c r="AP27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ27" t="n">
         <v>7</v>
@@ -5339,10 +5406,10 @@
         <v>18</v>
       </c>
       <c r="AS27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT27" t="n">
         <v>27</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>28</v>
       </c>
       <c r="AU27" t="n">
         <v>22</v>
@@ -5354,13 +5421,13 @@
         <v>16</v>
       </c>
       <c r="AX27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BA27" t="n">
         <v>18</v>
@@ -5369,7 +5436,7 @@
         <v>26</v>
       </c>
       <c r="BC27" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,13 +5555,13 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI28" t="n">
         <v>5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
         <v>5</v>
@@ -5521,19 +5588,19 @@
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
         <v>12</v>
       </c>
       <c r="AU28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV28" t="n">
         <v>6</v>
       </c>
       <c r="AW28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX28" t="n">
         <v>24</v>
@@ -5548,7 +5615,7 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -5580,121 +5647,121 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>0.364</v>
+        <v>0.4</v>
       </c>
       <c r="H29" t="n">
-        <v>49.4</v>
+        <v>49</v>
       </c>
       <c r="I29" t="n">
-        <v>35.2</v>
+        <v>34.5</v>
       </c>
       <c r="J29" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K29" t="n">
-        <v>0.419</v>
+        <v>0.416</v>
       </c>
       <c r="L29" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="M29" t="n">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="N29" t="n">
-        <v>0.326</v>
+        <v>0.338</v>
       </c>
       <c r="O29" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="P29" t="n">
-        <v>26.1</v>
+        <v>25.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.767</v>
+        <v>0.77</v>
       </c>
       <c r="R29" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="S29" t="n">
-        <v>30.7</v>
+        <v>30.2</v>
       </c>
       <c r="T29" t="n">
-        <v>44.7</v>
+        <v>44.1</v>
       </c>
       <c r="U29" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="V29" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="W29" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X29" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y29" t="n">
         <v>6.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="AA29" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>96.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF29" t="n">
         <v>18</v>
       </c>
-      <c r="AF29" t="n">
-        <v>23</v>
-      </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI29" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AK29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN29" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AO29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ29" t="n">
         <v>13</v>
@@ -5703,7 +5770,7 @@
         <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AT29" t="n">
         <v>9</v>
@@ -5715,25 +5782,25 @@
         <v>7</v>
       </c>
       <c r="AW29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ29" t="n">
         <v>27</v>
       </c>
       <c r="BA29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-11.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>30</v>
@@ -5852,7 +5919,7 @@
         <v>30</v>
       </c>
       <c r="AH30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI30" t="n">
         <v>28</v>
@@ -5870,7 +5937,7 @@
         <v>24</v>
       </c>
       <c r="AN30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO30" t="n">
         <v>16</v>
@@ -5909,7 +5976,7 @@
         <v>20</v>
       </c>
       <c r="BA30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB30" t="n">
         <v>30</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
@@ -6022,16 +6089,16 @@
         <v>-4.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
         <v>27</v>
       </c>
       <c r="AF31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH31" t="n">
         <v>1</v>
@@ -6043,7 +6110,7 @@
         <v>4</v>
       </c>
       <c r="AK31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL31" t="n">
         <v>3</v>
@@ -6061,19 +6128,19 @@
         <v>18</v>
       </c>
       <c r="AQ31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR31" t="n">
         <v>10</v>
       </c>
       <c r="AS31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT31" t="n">
         <v>19</v>
       </c>
       <c r="AU31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV31" t="n">
         <v>18</v>
@@ -6082,7 +6149,7 @@
         <v>5</v>
       </c>
       <c r="AX31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY31" t="n">
         <v>12</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-17-2013-14</t>
+          <t>2013-11-17</t>
         </is>
       </c>
     </row>
